--- a/Data.xlsx
+++ b/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
   <si>
     <t>y</t>
   </si>
@@ -35,82 +35,82 @@
     <t>Browser</t>
   </si>
   <si>
+    <t>selectplanTest</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>bhk</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>rk1,bhk1</t>
+  </si>
+  <si>
+    <t>whitefield</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ankur1989</t>
+  </si>
+  <si>
+    <t>9852755852</t>
+  </si>
+  <si>
+    <t>rk1</t>
+  </si>
+  <si>
+    <t>rk1,bhk1,bhk2,bhk3,bhk4</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>9812</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Worli</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>bhk5</t>
+  </si>
+  <si>
+    <t>Wakad</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shortlist</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
     <t>Mozilla</t>
-  </si>
-  <si>
-    <t>selectplanTest</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>bhk</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>rk1,bhk1</t>
-  </si>
-  <si>
-    <t>whitefield</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>ankur1989</t>
-  </si>
-  <si>
-    <t>9852755852</t>
-  </si>
-  <si>
-    <t>rk1</t>
-  </si>
-  <si>
-    <t>rk1,bhk1,bhk2,bhk3,bhk4</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>9812</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Worli</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>bhk5</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Wakad</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Shortlist</t>
   </si>
 </sst>
 </file>
@@ -499,18 +499,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +537,7 @@
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
@@ -545,22 +545,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
@@ -568,22 +568,22 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
@@ -591,258 +591,258 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-    </row>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
@@ -850,26 +850,49 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
   <si>
     <t>y</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>Mozilla</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +568,7 @@
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -588,7 +591,7 @@
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -611,7 +614,7 @@
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -634,7 +637,7 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -657,7 +660,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -680,7 +683,7 @@
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -703,7 +706,7 @@
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -726,7 +729,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -772,7 +775,7 @@
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
   <si>
     <t>y</t>
   </si>
@@ -104,16 +104,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Shortlist</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>Mozilla</t>
-  </si>
-  <si>
-    <t>n</t>
+    <t>ShortlistTest</t>
   </si>
 </sst>
 </file>
@@ -510,7 +504,7 @@
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -527,7 +521,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A12" sqref="A3:A12"/>
+      <selection activeCell="A13" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,7 +562,7 @@
     </row>
     <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -580,7 +574,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>14</v>
@@ -591,7 +585,7 @@
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -603,7 +597,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
@@ -614,7 +608,7 @@
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -626,7 +620,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
@@ -637,7 +631,7 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -649,7 +643,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -660,7 +654,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -672,7 +666,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
@@ -683,7 +677,7 @@
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -695,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>18</v>
@@ -706,7 +700,7 @@
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -718,7 +712,7 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>14</v>
@@ -729,7 +723,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -741,7 +735,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>21</v>
@@ -752,7 +746,7 @@
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -764,7 +758,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
@@ -775,7 +769,7 @@
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -787,7 +781,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
@@ -798,7 +792,7 @@
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -810,7 +804,7 @@
         <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>14</v>
@@ -821,8 +815,8 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>27</v>
+      <c r="A15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
@@ -862,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>14</v>
@@ -885,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>14</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="4080" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19632" windowHeight="4788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A13:L24"/>
+  <oleSize ref="A1:P14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
   <si>
     <t>y</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>ShortlistTest</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -520,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A3:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +611,7 @@
     </row>
     <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -631,7 +634,7 @@
     </row>
     <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -654,7 +657,7 @@
     </row>
     <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -677,7 +680,7 @@
     </row>
     <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -700,7 +703,7 @@
     </row>
     <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -723,7 +726,7 @@
     </row>
     <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -746,7 +749,7 @@
     </row>
     <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -769,7 +772,7 @@
     </row>
     <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -792,7 +795,7 @@
     </row>
     <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
   <si>
     <t>y</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Mozilla</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +603,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
@@ -646,7 +649,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -692,7 +695,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>18</v>
@@ -738,7 +741,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>21</v>
@@ -784,7 +787,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
@@ -859,7 +862,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>14</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19632" windowHeight="4788" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="4152" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P14"/>
+  <oleSize ref="A15:L22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="30">
   <si>
     <t>y</t>
   </si>
@@ -111,9 +111,6 @@
   </si>
   <si>
     <t>n</t>
-  </si>
-  <si>
-    <t>Mozilla</t>
   </si>
 </sst>
 </file>
@@ -526,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A13" sqref="A4:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +588,7 @@
     </row>
     <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -603,7 +600,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
@@ -649,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>14</v>
@@ -695,7 +692,7 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>18</v>
@@ -741,7 +738,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>21</v>
@@ -787,7 +784,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>14</v>
@@ -821,7 +818,7 @@
     </row>
     <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -862,7 +859,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>14</v>
@@ -873,7 +870,7 @@
     </row>
     <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
@@ -894,8 +891,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="4152" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="5736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="29">
   <si>
     <t>y</t>
   </si>
@@ -32,82 +32,79 @@
     <t>TCID</t>
   </si>
   <si>
+    <t>selectplanTest</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>bhk</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>rk1,bhk1</t>
+  </si>
+  <si>
+    <t>whitefield</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>ankur1989</t>
+  </si>
+  <si>
+    <t>9852755852</t>
+  </si>
+  <si>
+    <t>rk1</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>9812</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>bhk5</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ShortlistTest</t>
+  </si>
+  <si>
     <t>Browser</t>
   </si>
   <si>
-    <t>selectplanTest</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>bhk</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>rk1,bhk1</t>
-  </si>
-  <si>
-    <t>whitefield</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>ankur1989</t>
-  </si>
-  <si>
-    <t>9852755852</t>
-  </si>
-  <si>
-    <t>rk1</t>
-  </si>
-  <si>
-    <t>rk1,bhk1,bhk2,bhk3,bhk4</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>9812</t>
-  </si>
-  <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Worli</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>bhk5</t>
-  </si>
-  <si>
-    <t>Wakad</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>Mozilla</t>
   </si>
   <si>
     <t>Chrome</t>
   </si>
   <si>
-    <t>ShortlistTest</t>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
   <si>
     <t>n</t>
@@ -117,10 +114,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,12 +169,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,18 +513,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -521,7 +535,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A13" sqref="A4:A13"/>
@@ -531,412 +545,445 @@
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="3" t="s">
+    </row>
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s">
+    </row>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="I17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-    </row>
+        <v>12</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="5736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="2556" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
   <si>
     <t>y</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Fail</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
 </sst>
 </file>
@@ -537,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A13" sqref="A4:A13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,7 +607,7 @@
     </row>
     <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -636,7 +633,7 @@
     </row>
     <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -662,7 +659,7 @@
     </row>
     <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -688,7 +685,7 @@
     </row>
     <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -714,7 +711,7 @@
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -740,7 +737,7 @@
     </row>
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -766,7 +763,7 @@
     </row>
     <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -792,7 +789,7 @@
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -818,7 +815,7 @@
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -844,7 +841,7 @@
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -870,7 +867,7 @@
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -954,7 +951,7 @@
     </row>
     <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="2556" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19575" windowHeight="4095" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="25">
   <si>
     <t>y</t>
   </si>
@@ -96,22 +96,13 @@
   </si>
   <si>
     <t>Chrome</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +113,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -174,7 +158,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,12 +478,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -508,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -516,7 +499,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -524,7 +507,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -534,26 +517,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -575,11 +557,8 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -601,11 +580,8 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -627,11 +603,8 @@
       <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -653,11 +626,8 @@
       <c r="G5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -679,11 +649,8 @@
       <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -705,11 +672,8 @@
       <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -731,11 +695,8 @@
       <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -757,11 +718,8 @@
       <c r="G9" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -783,11 +741,8 @@
       <c r="G10" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -809,11 +764,8 @@
       <c r="G11" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -835,11 +787,8 @@
       <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -861,11 +810,8 @@
       <c r="G13" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -887,17 +833,14 @@
       <c r="G14" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -919,11 +862,8 @@
       <c r="G17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -945,11 +885,8 @@
       <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -971,16 +908,13 @@
       <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A15:L22"/>
+  <oleSize ref="A15:P25"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>y</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Chrome</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A18" sqref="A18:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,7 +609,7 @@
     </row>
     <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -629,7 +632,7 @@
     </row>
     <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -652,7 +655,7 @@
     </row>
     <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -675,7 +678,7 @@
     </row>
     <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -698,7 +701,7 @@
     </row>
     <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -721,7 +724,7 @@
     </row>
     <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -744,7 +747,7 @@
     </row>
     <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -767,7 +770,7 @@
     </row>
     <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -790,7 +793,7 @@
     </row>
     <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -813,7 +816,7 @@
     </row>
     <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -888,7 +891,7 @@
     </row>
     <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19575" windowHeight="4095" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15660" windowHeight="6384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="2" r:id="rId1"/>
@@ -481,12 +481,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +502,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -510,7 +510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -518,27 +518,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -561,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -584,7 +584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -607,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -630,9 +630,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -653,7 +653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -676,7 +676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -699,7 +699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -745,7 +745,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -768,7 +768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -791,7 +791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -814,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -837,13 +837,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>1</v>
       </c>
@@ -866,7 +866,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -889,7 +889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -912,12 +912,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:9" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
